--- a/biology/Botanique/Brachystephanus_giganteus/Brachystephanus_giganteus.xlsx
+++ b/biology/Botanique/Brachystephanus_giganteus/Brachystephanus_giganteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachystephanus giganteus Champl. est une espèce de plantes à fleur de la famille des Acanthaceae et du genre Brachystephanus, présente principalement au sud-ouest et au nord-ouest du Cameroun, également en Guinée équatoriale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachystephanus giganteus Champl. est une espèce de plantes à fleur de la famille des Acanthaceae et du genre Brachystephanus, présente principalement au sud-ouest et au nord-ouest du Cameroun, également en Guinée équatoriale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 4 m de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 4 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord connu sous le nom de Oreacanthus mannii, ce taxon a été réattribué au genre Brachystephanus par D. Champluvier et I. Darbyshire en 2009[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord connu sous le nom de Oreacanthus mannii, ce taxon a été réattribué au genre Brachystephanus par D. Champluvier et I. Darbyshire en 2009.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est assez répandue au mont Cameroun, plus rare au mont Manengouba, au mont Oku, aux monts Rumpi. Elle a été observée également sur l'île de Bioko, en Guinée équatoriale, mais toutes ces collectes sont antérieures aux années 1980. Elle semble avoir perdu 30 % de son habitat en quelque 30 ans, peut-être en l'absence de floraisons en masse pendant plusieurs saisons, mais cette estimation n'a pas été démentie par des études plus récentes[2].
-Elle est classée « vulnérable » (VU) sur la liste rouge de l'UICN[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est assez répandue au mont Cameroun, plus rare au mont Manengouba, au mont Oku, aux monts Rumpi. Elle a été observée également sur l'île de Bioko, en Guinée équatoriale, mais toutes ces collectes sont antérieures aux années 1980. Elle semble avoir perdu 30 % de son habitat en quelque 30 ans, peut-être en l'absence de floraisons en masse pendant plusieurs saisons, mais cette estimation n'a pas été démentie par des études plus récentes.
+Elle est classée « vulnérable » (VU) sur la liste rouge de l'UICN.
 </t>
         </is>
       </c>
